--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBranch.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBranch.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E70D4-CB9A-443C-8568-09DF9DF41EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -333,6 +332,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>營業單位資料檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <t>Group6</t>
+  </si>
+  <si>
+    <t>Group7</t>
+  </si>
+  <si>
+    <t>Group8</t>
+  </si>
+  <si>
+    <t>Group9</t>
+  </si>
+  <si>
+    <t>Group10</t>
+  </si>
+  <si>
+    <t>AcBranchNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心會計單位別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用,改記錄於CdBranchGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">0000:放款部
 0025:信託部 
 0036:台中   
@@ -346,58 +392,11 @@
 0117:新竹   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>營業單位資料檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group2</t>
-  </si>
-  <si>
-    <t>Group3</t>
-  </si>
-  <si>
-    <t>Group4</t>
-  </si>
-  <si>
-    <t>Group5</t>
-  </si>
-  <si>
-    <t>Group6</t>
-  </si>
-  <si>
-    <t>Group7</t>
-  </si>
-  <si>
-    <t>Group8</t>
-  </si>
-  <si>
-    <t>Group9</t>
-  </si>
-  <si>
-    <t>Group10</t>
-  </si>
-  <si>
-    <t>AcBranchNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心會計單位別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用,改記錄於CdBranchGroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -624,7 +623,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,23 +714,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -767,23 +749,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -959,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -986,7 +951,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
@@ -1103,7 +1068,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1111,10 +1076,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -1416,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>66</v>
@@ -1429,7 +1394,7 @@
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>67</v>
@@ -1450,7 +1415,7 @@
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1458,7 +1423,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>68</v>
@@ -1471,7 +1436,7 @@
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1479,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>69</v>
@@ -1492,7 +1457,7 @@
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>70</v>
@@ -1513,7 +1478,7 @@
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>71</v>
@@ -1534,7 +1499,7 @@
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1542,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>72</v>
@@ -1555,7 +1520,7 @@
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1563,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>73</v>
@@ -1576,7 +1541,7 @@
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1584,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>74</v>
@@ -1597,7 +1562,7 @@
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1605,7 +1570,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>75</v>
@@ -1618,7 +1583,7 @@
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBranch.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBranch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D5B56F-E69A-41F1-85F9-89456BBF8D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -225,9 +226,6 @@
     <t>稽徵機關代號</t>
   </si>
   <si>
-    <t>RSO:Revenue Service Office</t>
-  </si>
-  <si>
     <t>MediaUnitCode</t>
   </si>
   <si>
@@ -392,11 +390,15 @@
 0117:新竹   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RSO：Revenue Service Office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -623,7 +625,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,6 +716,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -749,6 +768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -924,11 +960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -948,10 +984,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
@@ -1055,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>19</v>
@@ -1068,7 +1104,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -1154,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>29</v>
@@ -1314,7 +1350,7 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1322,10 +1358,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>20</v>
@@ -1343,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>20</v>
@@ -1362,10 +1398,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>20</v>
@@ -1381,20 +1417,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="15">
         <v>10</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1402,20 +1438,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="15">
         <v>10</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1423,20 +1459,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="15">
         <v>10</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1444,20 +1480,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="15">
         <v>10</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,20 +1501,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="15">
         <v>10</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1486,20 +1522,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="15">
         <v>10</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1507,20 +1543,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="15">
         <v>10</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1528,20 +1564,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="15">
         <v>10</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1549,20 +1585,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="15">
         <v>10</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1570,20 +1606,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="E34" s="15">
         <v>10</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1610,10 +1646,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>20</v>
@@ -1631,13 +1667,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -1650,10 +1686,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>20</v>
@@ -1683,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1712,13 +1748,13 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
